--- a/test_excel.xlsx
+++ b/test_excel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\liujiangqing\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_work\peakrdl_format_trans\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF180581-CC2D-4922-83A7-9F9932847CA6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4BACAA2-48D5-4CD5-81B2-860F4943B838}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="68">
   <si>
     <t>Bits</t>
   </si>
@@ -40,9 +40,6 @@
     <t>RO</t>
   </si>
   <si>
-    <t>4’h0</t>
-  </si>
-  <si>
     <t>Reserved</t>
   </si>
   <si>
@@ -103,9 +100,6 @@
     <t>WO1</t>
   </si>
   <si>
-    <t>4’h1</t>
-  </si>
-  <si>
     <t>Config Switch roles</t>
   </si>
   <si>
@@ -121,9 +115,6 @@
     <t>W1C</t>
   </si>
   <si>
-    <t>27’h0</t>
-  </si>
-  <si>
     <t>4:1</t>
   </si>
   <si>
@@ -142,9 +133,6 @@
     <t>W0C</t>
   </si>
   <si>
-    <t>1’h0</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
@@ -158,9 +146,6 @@
   </si>
   <si>
     <t>WRC</t>
-  </si>
-  <si>
-    <t>29’h0</t>
   </si>
   <si>
     <t>rate_update_error</t>
@@ -201,6 +186,57 @@
   </si>
   <si>
     <t>Function</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2:2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4'h0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4'h1</t>
+  </si>
+  <si>
+    <t>4'h2</t>
+  </si>
+  <si>
+    <t>4'h3</t>
+  </si>
+  <si>
+    <t>4'h4</t>
+  </si>
+  <si>
+    <t>4'h5</t>
+  </si>
+  <si>
+    <t>27'h0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4'h0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1'h0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>29'h0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1'h0</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -380,7 +416,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -394,9 +430,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1586,7 +1619,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -1602,36 +1635,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A1" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B1" s="7" t="s">
+      <c r="A1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>58</v>
+      <c r="C1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="20.25" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="10"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="3"/>
@@ -1645,248 +1678,248 @@
         <v>5</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="13"/>
+        <v>27</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="12"/>
     </row>
     <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="3"/>
-      <c r="B12" s="5">
-        <v>0</v>
+      <c r="B12" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="13"/>
+        <v>38</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="12"/>
     </row>
     <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="3"/>
-      <c r="B15" s="5">
-        <v>2</v>
+      <c r="B15" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="3"/>
-      <c r="B16" s="5">
-        <v>1</v>
+      <c r="B16" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="3"/>
-      <c r="B17" s="5">
-        <v>0</v>
+      <c r="B17" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
